--- a/financial_files/excel/DASTY.xlsx
+++ b/financial_files/excel/DASTY.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O114" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O114" headerRowCount="1">
   <autoFilter ref="A1:O114"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/DASTY.xlsx
+++ b/financial_files/excel/DASTY.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2000"/>
+    <tableColumn id="3" name="2001"/>
+    <tableColumn id="4" name="2002"/>
+    <tableColumn id="5" name="2003"/>
+    <tableColumn id="6" name="2004"/>
+    <tableColumn id="7" name="2005"/>
+    <tableColumn id="8" name="2006"/>
+    <tableColumn id="9" name="2007"/>
+    <tableColumn id="10" name="2008"/>
+    <tableColumn id="11" name="2009"/>
+    <tableColumn id="12" name="2010"/>
+    <tableColumn id="13" name="2011"/>
+    <tableColumn id="14" name="2012"/>
+    <tableColumn id="15" name="2013"/>
+    <tableColumn id="16" name="2014"/>
+    <tableColumn id="17" name="2015"/>
+    <tableColumn id="18" name="2016"/>
+    <tableColumn id="19" name="2017"/>
+    <tableColumn id="20" name="2018"/>
+    <tableColumn id="21" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6760,4 +6803,2255 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>569743000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>666089000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>789822000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>926820000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1066975000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1107714000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1529454000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1832386000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1803758000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1824117000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2068570000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2346109000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2661866000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2830305000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2828952000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3093088000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3223192000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3820118000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3956086000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4464667000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>175043000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>145168000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>207152000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>261213000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>307804000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>297497000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>324894000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>384335000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>370177000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>336780000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>425909000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>576017000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>660820000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>698304000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>579686000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>703232000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>736803000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>888166000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>914334000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>936333000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>170992000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>157722000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>209966000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>262071000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>318044000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>316374000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>330987000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>395004000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>382242000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>330708000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>423278000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>564495000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>681173000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>713707000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>549633000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>689637000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>697784000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>889231000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>891695000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>906556000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-77562000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-78494000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-80987000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-94403000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-108284000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-107684000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-93540000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-137402000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-110800000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-82875000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-131351000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-182257000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-236516000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-227173000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-189028000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-247425000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-220772000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-273728000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-250739000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-232889000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>239142000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>233765000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>232155000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>228768000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>230938000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>236308000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>238356000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>239270000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>238506000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>237055000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>242470000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>247959000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>251817000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>255192000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>255286000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>256592000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>257399000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>258302000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>260753000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>263199000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>660946000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>742313000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>938834000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1184263000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1472304000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1675260000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2451832000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2705958000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2894655000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3352344000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4063272000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4627347000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4740717000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5736840000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6118846000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6875196000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7323909000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>8319290000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>9071672000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>15414000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6183000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6865000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7627000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13154000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>35306000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>301239000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>33499000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>27451000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12311000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>398180000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4889000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>264201000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>291121000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>270270000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>291545000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>388120000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>95204000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>50248000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>493177000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>431566000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1089325000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1054852000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1183432000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>739477000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5107556000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>419547000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>491834000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>641009000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>807540000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1022418000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1174554000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1467667000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1627671000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1771018000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2111899000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2370115000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2741657000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3088150000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3594727000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3649203000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3799235000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4095813000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4729112000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5262571000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5847333000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>111163000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>142125000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>145661000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>217792000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>279796000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>233192000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>343198000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>453205000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>417593000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>434303000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>540156000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>593241000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>743173000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>694311000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>615848000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>689827000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>655846000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>881657000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1022298000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1317889000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-19200000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-20369000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-20621000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-23619000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-35899000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-51195000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-34149000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-43847000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-23752000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-23101000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-47645000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-93892000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-53315000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-58068000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-55972000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-47472000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-59763000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-100000000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-82366000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-109222000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3739</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5676</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6147</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2372</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2291</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2466</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2297</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2419</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2651</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2817</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1594</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2191</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2062</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1066</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1179</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1691</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1857</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1734</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0381</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3807</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.0156</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1341</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.06320000000000001</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.09329999999999999</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.1851</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1285</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.1073</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1329</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6401</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3075</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.0297</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1318</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.0819</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1554</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2732</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.256</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2162</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.2964</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0483</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1495</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1722</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3033</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2597</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1488</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2495</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1924</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1222</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1567</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1263</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0411</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1546</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.1128</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.0518</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2785</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4951</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2846</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1665</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4717</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3205</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.0785</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.2437</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0982</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.06569999999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.113</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1201</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.0492</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3443</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1595</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.2891</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.0353</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3239</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5528</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.2537</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.0379</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1977</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3815</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.07770000000000001</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1473</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.07199999999999999</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3113</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.2024</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.2859</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>91963000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>121756000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>125040000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>194173000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>243897000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>181997000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>309049000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>409358000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>393841000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>411202000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>492511000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>499349000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>689858000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>636243000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>559876000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>642355000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>596083000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>781657000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>939932000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1208667000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.7543</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.1039</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.7611</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.5299</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.4272</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.9704</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.1574</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.8026</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.4254</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8.908799999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.774800000000001</v>
+      </c>
+      <c r="M21" t="n">
+        <v>11.0568</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12.2634</v>
+      </c>
+      <c r="O21" t="n">
+        <v>14.0863</v>
+      </c>
+      <c r="P21" t="n">
+        <v>14.2945</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14.8065</v>
+      </c>
+      <c r="R21" t="n">
+        <v>15.9123</v>
+      </c>
+      <c r="S21" t="n">
+        <v>18.3084</v>
+      </c>
+      <c r="T21" t="n">
+        <v>20.1822</v>
+      </c>
+      <c r="U21" t="n">
+        <v>22.2163</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7508516940</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5437373900</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2511396320</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5168931530</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5743942520</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6501976020</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6119628630</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6910440420</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5384471250</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6765886300</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9284362900</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9899098850</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14046737250</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15641601250</v>
+      </c>
+      <c r="P22" t="n">
+        <v>15347173000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>20346157650</v>
+      </c>
+      <c r="R22" t="n">
+        <v>19377102800</v>
+      </c>
+      <c r="S22" t="n">
+        <v>27149209120</v>
+      </c>
+      <c r="T22" t="n">
+        <v>30350352240</v>
+      </c>
+      <c r="U22" t="n">
+        <v>42684093620</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>80.3651</v>
+      </c>
+      <c r="C23" t="n">
+        <v>68.6277</v>
+      </c>
+      <c r="D23" t="n">
+        <v>19.471</v>
+      </c>
+      <c r="E23" t="n">
+        <v>31.0862</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27.4146</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31.2622</v>
+      </c>
+      <c r="H23" t="n">
+        <v>25.7647</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="J23" t="n">
+        <v>19.8729</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27.3439</v>
+      </c>
+      <c r="L23" t="n">
+        <v>31.8257</v>
+      </c>
+      <c r="M23" t="n">
+        <v>26.0156</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31.9681</v>
+      </c>
+      <c r="O23" t="n">
+        <v>32.4128</v>
+      </c>
+      <c r="P23" t="n">
+        <v>42.7363</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>46.4415</v>
+      </c>
+      <c r="R23" t="n">
+        <v>41.0773</v>
+      </c>
+      <c r="S23" t="n">
+        <v>44.1683</v>
+      </c>
+      <c r="T23" t="n">
+        <v>46.8527</v>
+      </c>
+      <c r="U23" t="n">
+        <v>62.434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>26.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>28.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>26.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>28.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5107556000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.559999960377268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1015837162268666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1015837162268666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6.736200937964709</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>40.59322999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>20.31674324537332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>20.31674324537332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>136.857664905872</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>33.82912168028275</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>16.91456084014138</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DASSAULT SYSTEMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DASTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Software—Application</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.3ds.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>54115987456</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>16663</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>61.9012</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>203.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>